--- a/data/types.xlsx
+++ b/data/types.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99D2E74-C30A-FD48-A4F5-92361ABBAFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3325BD-95A4-9943-B351-8922D422BECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1000" windowWidth="27120" windowHeight="16380" xr2:uid="{81711CDA-EBD9-E94B-8729-EDB876C4EEC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>中式料理</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -112,6 +112,10 @@
   <si>
     <t>鐵板燒</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCFBC76-0B20-0F4D-A0E6-230BD8798A13}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -526,98 +530,103 @@
     <col min="1" max="1" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1" ht="16">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="16">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="16">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="16">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="16">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="16">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="16">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:1" ht="16">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
